--- a/code/results/Results.xlsx
+++ b/code/results/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5080" yWindow="-21600" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-5080" yWindow="-21600" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="E-Values" sheetId="1" r:id="rId1"/>
@@ -101,8 +101,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -163,6 +169,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -181,6 +190,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,7 +236,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.121748625761402"/>
+          <c:y val="0.0704791344667697"/>
+          <c:w val="0.857633692014913"/>
+          <c:h val="0.841705387676618"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -244,70 +266,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.00205976611414139"/>
-                  <c:y val="0.0431671311565189"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0400616332819722"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0462249614791988"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'E-Values'!$F$1:$H$1</c:f>
@@ -327,10 +285,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'E-Values'!$F$2:$H$2</c:f>
+              <c:f>'E-Values'!$F$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3767.0</c:v>
                 </c:pt>
@@ -338,7 +296,7 @@
                   <c:v>3021.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2867.0</c:v>
+                  <c:v>2638.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,70 +317,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.00102994720922501"/>
-                  <c:y val="0.0446840081045339"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.00102986611740481"/>
-                  <c:y val="0.0400616332819723"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0431432973805855"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'E-Values'!$F$1:$H$1</c:f>
@@ -442,10 +336,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'E-Values'!$F$3:$H$3</c:f>
+              <c:f>'E-Values'!$F$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2908.0</c:v>
                 </c:pt>
@@ -453,7 +347,7 @@
                   <c:v>2426.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2627.0</c:v>
+                  <c:v>2519.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,70 +368,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0400616332819722"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0446841294298921"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0"/>
-                  <c:y val="0.0416024653312789"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'E-Values'!$F$1:$H$1</c:f>
@@ -557,10 +387,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'E-Values'!$F$4:$H$4</c:f>
+              <c:f>'E-Values'!$F$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3367.620379620379</c:v>
                 </c:pt>
@@ -568,7 +398,7 @@
                   <c:v>2672.614385614386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2729.378378378378</c:v>
+                  <c:v>2586.081081081081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,15 +413,15 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2110810440"/>
-        <c:axId val="-2147403016"/>
+        <c:axId val="-2132262184"/>
+        <c:axId val="-2133106600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110810440"/>
+        <c:axId val="-2132262184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -622,17 +452,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2147403016"/>
+        <c:crossAx val="-2133106600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147403016"/>
+        <c:axId val="-2133106600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110810440"/>
+        <c:crossAx val="-2132262184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -723,7 +543,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -738,16 +558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1091,21 +911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>3760</v>
       </c>
@@ -1133,7 +953,7 @@
         <v>2529</v>
       </c>
       <c r="C2">
-        <v>2777</v>
+        <v>2624</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1148,10 +968,10 @@
       </c>
       <c r="H2">
         <f>MAX(C2:C38)</f>
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>3751</v>
       </c>
@@ -1159,7 +979,7 @@
         <v>2533</v>
       </c>
       <c r="C3">
-        <v>2867</v>
+        <v>2592</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1174,10 +994,10 @@
       </c>
       <c r="H3">
         <f>MIN(C2:C38)</f>
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3750</v>
       </c>
@@ -1185,7 +1005,7 @@
         <v>2584</v>
       </c>
       <c r="C4">
-        <v>2831</v>
+        <v>2519</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1200,10 +1020,11 @@
       </c>
       <c r="H4" s="1">
         <f>AVERAGE(C2:C38)</f>
-        <v>2729.3783783783783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>2586.0810810810813</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3757</v>
       </c>
@@ -1211,10 +1032,10 @@
         <v>2550</v>
       </c>
       <c r="C5">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3744</v>
       </c>
@@ -1222,10 +1043,10 @@
         <v>2589</v>
       </c>
       <c r="C6">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3740</v>
       </c>
@@ -1233,10 +1054,10 @@
         <v>2528</v>
       </c>
       <c r="C7">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3766</v>
       </c>
@@ -1244,10 +1065,10 @@
         <v>2552</v>
       </c>
       <c r="C8">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3754</v>
       </c>
@@ -1255,10 +1076,10 @@
         <v>2555</v>
       </c>
       <c r="C9">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3750</v>
       </c>
@@ -1266,10 +1087,10 @@
         <v>2564</v>
       </c>
       <c r="C10">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3754</v>
       </c>
@@ -1277,10 +1098,10 @@
         <v>2577</v>
       </c>
       <c r="C11">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>3739</v>
       </c>
@@ -1288,10 +1109,10 @@
         <v>2561</v>
       </c>
       <c r="C12">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>3754</v>
       </c>
@@ -1299,10 +1120,10 @@
         <v>2542</v>
       </c>
       <c r="C13">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3752</v>
       </c>
@@ -1310,10 +1131,10 @@
         <v>2537</v>
       </c>
       <c r="C14">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3750</v>
       </c>
@@ -1321,10 +1142,10 @@
         <v>2534</v>
       </c>
       <c r="C15">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3730</v>
       </c>
@@ -1332,7 +1153,7 @@
         <v>2539</v>
       </c>
       <c r="C16">
-        <v>2733</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1343,7 +1164,7 @@
         <v>2542</v>
       </c>
       <c r="C17">
-        <v>2743</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1354,7 +1175,7 @@
         <v>2548</v>
       </c>
       <c r="C18">
-        <v>2689</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1365,7 +1186,7 @@
         <v>2570</v>
       </c>
       <c r="C19">
-        <v>2627</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1376,7 +1197,7 @@
         <v>2545</v>
       </c>
       <c r="C20">
-        <v>2698</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1387,7 +1208,7 @@
         <v>2572</v>
       </c>
       <c r="C21">
-        <v>2771</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1398,7 +1219,7 @@
         <v>2545</v>
       </c>
       <c r="C22">
-        <v>2721</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1409,7 +1230,7 @@
         <v>2533</v>
       </c>
       <c r="C23">
-        <v>2701</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1420,7 +1241,7 @@
         <v>2559</v>
       </c>
       <c r="C24">
-        <v>2740</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1431,7 +1252,7 @@
         <v>2544</v>
       </c>
       <c r="C25">
-        <v>2766</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1442,7 +1263,7 @@
         <v>2547</v>
       </c>
       <c r="C26">
-        <v>2728</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1453,7 +1274,7 @@
         <v>2573</v>
       </c>
       <c r="C27">
-        <v>2812</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1464,7 +1285,7 @@
         <v>2539</v>
       </c>
       <c r="C28">
-        <v>2681</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1475,7 +1296,7 @@
         <v>2548</v>
       </c>
       <c r="C29">
-        <v>2687</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1486,7 +1307,7 @@
         <v>2574</v>
       </c>
       <c r="C30">
-        <v>2733</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1497,7 +1318,7 @@
         <v>2541</v>
       </c>
       <c r="C31">
-        <v>2778</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1508,7 +1329,7 @@
         <v>2530</v>
       </c>
       <c r="C32">
-        <v>2682</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1519,7 +1340,7 @@
         <v>2537</v>
       </c>
       <c r="C33">
-        <v>2675</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1530,7 +1351,7 @@
         <v>2565</v>
       </c>
       <c r="C34">
-        <v>2727</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1541,7 +1362,7 @@
         <v>2571</v>
       </c>
       <c r="C35">
-        <v>2681</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1552,7 +1373,7 @@
         <v>2579</v>
       </c>
       <c r="C36">
-        <v>2668</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1563,7 +1384,7 @@
         <v>2534</v>
       </c>
       <c r="C37">
-        <v>2668</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1574,7 +1395,7 @@
         <v>2576</v>
       </c>
       <c r="C38">
-        <v>2678</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9305,7 +9126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
